--- a/firstt/data/sun.xlsx
+++ b/firstt/data/sun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>un</t>
   </si>
@@ -29,6 +28,81 @@
   </si>
   <si>
     <t>raj143</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Swathi</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Raghu</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
 </sst>
 </file>
@@ -64,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -391,12 +466,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
